--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>360750</t>
+          <t>394670</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,83 +474,198 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Theme</t>
+          <t>글로벌주식</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>85.72653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>456780</t>
+          <t>292150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACE 애플밸류체인Active</t>
+          <t>TIGER 코리아TOP10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Theme</t>
+          <t>국내주식</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>298.8439</v>
+        <v>40.06132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>483420</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ACE 애플밸류체인액티브</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>미국주식</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>298.8439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>245350</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPDR S&amp;P 500 ETF Trust</t>
+          <t>TIGER 유로스탁스배당30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US Market</t>
+          <t>유럽주식</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>213.8306</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0.2064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>469160</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACE 일본반도체</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>일본주식</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>71.72225</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>220130</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SOL 차이나강소기업CSI500(합성 H)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>중국본토주식</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>97.79045000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>419430</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KODEX 차이나2차전지MSCI(합성)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>중국역외주식</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>59.7561</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>105010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TIGER 라틴35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>신흥국주식</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>329.6137</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>455960</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RISE 미국달러SOFR금리액티브(합성)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>선진국채권1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>265.0505</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.164</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -462,10 +462,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>394670</t>
-        </is>
+      <c r="A2" t="n">
+        <v>394670</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,10 +483,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>292150</t>
-        </is>
+      <c r="A3" t="n">
+        <v>292150</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -508,10 +504,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>483420</t>
-        </is>
+      <c r="A4" t="n">
+        <v>483420</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -531,10 +525,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>245350</t>
-        </is>
+      <c r="A5" t="n">
+        <v>245350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -554,10 +546,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>469160</t>
-        </is>
+      <c r="A6" t="n">
+        <v>469160</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,10 +567,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>220130</t>
-        </is>
+      <c r="A7" t="n">
+        <v>220130</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,10 +588,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>419430</t>
-        </is>
+      <c r="A8" t="n">
+        <v>419430</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -623,10 +609,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>105010</t>
-        </is>
+      <c r="A9" t="n">
+        <v>105010</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -646,10 +630,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>455960</t>
-        </is>
+      <c r="A10" t="n">
+        <v>455960</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -712,7 +694,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,8 +462,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>394670</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>394670</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -483,8 +485,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>292150</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>292150</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -504,8 +508,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>483420</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>483420</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,8 +531,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>245350</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>245350</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -546,8 +554,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>469160</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>469160</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -567,8 +577,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>220130</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>220130</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -588,8 +600,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>419430</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>419430</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -609,8 +623,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>105010</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>105010</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -630,8 +646,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>455960</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>455960</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -648,6 +666,29 @@
       </c>
       <c r="E10" t="n">
         <v>0.164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0053L0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TIGER 차이나휴머노이드로봇</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>중국본토주식</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -698,14 +739,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Initial Setup</t>
+          <t>Initial Capital Setup</t>
         </is>
       </c>
     </row>
